--- a/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
+++ b/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git_atlantis\SourceCodes\Lusteni_GitHub\_data\Osmismerky\2025-01_KO\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC4D04-88CE-43F3-97F7-31D89A2EEEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DBA0CA-B87E-4BCD-840B-D2EB5ECB4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="132" windowWidth="15072" windowHeight="10968" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37050" yWindow="975" windowWidth="17280" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="309">
   <si>
     <t>time to solve</t>
   </si>
@@ -52,9 +52,6 @@
     <t>osmi_10</t>
   </si>
   <si>
-    <t>v2 [mikro sec]</t>
-  </si>
-  <si>
     <t>osmi_11</t>
   </si>
   <si>
@@ -464,6 +461,498 @@
   </si>
   <si>
     <t>COSISOKUSOVALNEHTY!</t>
+  </si>
+  <si>
+    <t>MÁMNÁROČNOUMILENKU</t>
+  </si>
+  <si>
+    <t>ACOJETOTENALTÁNEK?</t>
+  </si>
+  <si>
+    <t>TOJÍMUSÍMEHNEDKOUPIT</t>
+  </si>
+  <si>
+    <t>MELUZÍNASIČASTOZAPÍSKÁ</t>
+  </si>
+  <si>
+    <t>KHNEDJSEMDOSTALPÍT</t>
+  </si>
+  <si>
+    <t>KDOZTRATILVSEBEVÍRU</t>
+  </si>
+  <si>
+    <t>DESÁTÉNEBOKOLEMDESÁTÉHO</t>
+  </si>
+  <si>
+    <t>KTERÁTAKYNEMŮŽEUSNOUT</t>
+  </si>
+  <si>
+    <t>BYCHTIZOBALZRUKY</t>
+  </si>
+  <si>
+    <t>AJÁBYLEMENTÁL!</t>
+  </si>
+  <si>
+    <t>ZROVNATAKJAKOJÁ</t>
+  </si>
+  <si>
+    <t>ŽEUŽASIPODVÁDÍITEBE</t>
+  </si>
+  <si>
+    <t>PŘEPADLAMĚŽÍZEŇ</t>
+  </si>
+  <si>
+    <t>JSEMTAKOVÝAPATICKÝ</t>
+  </si>
+  <si>
+    <t>ASTEJNĚTODĚLAJÍIMOTÝLI!</t>
+  </si>
+  <si>
+    <t>OSUDVLÁDNELIDEM</t>
+  </si>
+  <si>
+    <t>POSÍLÁMVŘELÝPOZDRAV</t>
+  </si>
+  <si>
+    <t>TAKSEOBLEČETEAPŮJDETEDOMŮ</t>
+  </si>
+  <si>
+    <t>ALEJÁODNĚHO</t>
+  </si>
+  <si>
+    <t>MNENĚKDYVEZMESSEBOU</t>
+  </si>
+  <si>
+    <t>PLATITTYALIMENTYSÁM</t>
+  </si>
+  <si>
+    <t>KAMARÁDMIJEVYTETOVALNAZÁDA</t>
+  </si>
+  <si>
+    <t>TADYTAKÉNENÍTOALETNÍPAPÍR</t>
+  </si>
+  <si>
+    <t>ŽEBYTENCHLAPBYLNESMRTELNÝ?</t>
+  </si>
+  <si>
+    <t>SVAČINYDSEÁNM!</t>
+  </si>
+  <si>
+    <t>TYSISVYŠKUBALAOBOČÍVIĎ?</t>
+  </si>
+  <si>
+    <t>JÁJSEMLSNĚDLVŠECHNO</t>
+  </si>
+  <si>
+    <t>TENPÁNBYLVÁŠDOKTOR</t>
+  </si>
+  <si>
+    <t>VZÁJEMNÁÚCTANAŠICHPOLITIKŮ</t>
+  </si>
+  <si>
+    <t>VIDĚTTCHÝNIDVAKRÁT</t>
+  </si>
+  <si>
+    <t>JEŽENATÝ</t>
+  </si>
+  <si>
+    <t>VOLANASLUŽEBNÍCESTĚ</t>
+  </si>
+  <si>
+    <t>JEŠTĚMÁMEJÍZDNÍŘÁD</t>
+  </si>
+  <si>
+    <t>TOBYBYLIDEÁLNÍMANŽEL</t>
+  </si>
+  <si>
+    <t>KDYŽSTÁLPŘEDZRCADLEM</t>
+  </si>
+  <si>
+    <t>ZIMAVŠUDYČIŠÍ</t>
+  </si>
+  <si>
+    <t>KONEČNĚNĚKAMPOBAVIT</t>
+  </si>
+  <si>
+    <t>DÁMEMASODOKOMÍNA</t>
+  </si>
+  <si>
+    <t>VŽDYŤJEROVNOPRÁVNOST</t>
+  </si>
+  <si>
+    <t>NEŽMĚZAVŘELI</t>
+  </si>
+  <si>
+    <t>TAKMUJEDNODUŠESEBERUZUBY</t>
+  </si>
+  <si>
+    <t>TATÍNEKUŽNEMĚLDÉLEČAS</t>
+  </si>
+  <si>
+    <t>ALEŽÁDNÁTAMNEBYLA</t>
+  </si>
+  <si>
+    <t>KDYJIMÁMZASEPŘIVÉST</t>
+  </si>
+  <si>
+    <t>VŽDYCKYKUPUJESLIVOVICI</t>
+  </si>
+  <si>
+    <t>NAŠLAMANŽELKAVAUTĚ</t>
+  </si>
+  <si>
+    <t>SOTEVŘENÝMAOČIMA</t>
+  </si>
+  <si>
+    <t>HNEDZAPNUVENTILÁTOR!</t>
+  </si>
+  <si>
+    <t>MÍIZAKÁHZALAMÝTNÁDOBÍ</t>
+  </si>
+  <si>
+    <t>ANEBYLIBYMNECHYTILI</t>
+  </si>
+  <si>
+    <t>MÉŽENĚŘIDIČÁK</t>
+  </si>
+  <si>
+    <t>KDYMĚMŮJMANŽELPODVEDE</t>
+  </si>
+  <si>
+    <t>ANEDÁVÁTEASPOŇRODINNÉSLEVY?</t>
+  </si>
+  <si>
+    <t>SEVRÁTILAJEHOŽENA</t>
+  </si>
+  <si>
+    <t>NEDĚLÁANIJEDEN</t>
+  </si>
+  <si>
+    <t>ZÁCHYTNOUSTANICIUŽNOCPŘEDTÍM</t>
+  </si>
+  <si>
+    <t>AKOLIKJICHCHCETE?</t>
+  </si>
+  <si>
+    <t>PŘESKOČITOBĚDAVEČEŘI</t>
+  </si>
+  <si>
+    <t>NATOMMEJDANUNEBYLA</t>
+  </si>
+  <si>
+    <t>AZDÁLOSEVÁMNĚCOHEZKÉHO?</t>
+  </si>
+  <si>
+    <t>TÍMJSINANICHTYMLADŠÍ!</t>
+  </si>
+  <si>
+    <t>KRYSYAHADISENEMAJÍRÁDI</t>
+  </si>
+  <si>
+    <t>KTERÝPIJEPOTAJMO</t>
+  </si>
+  <si>
+    <t>DVĚTŘETINYZTROJČAT</t>
+  </si>
+  <si>
+    <t>PĚTJICHSEDĚLONAPIVĚAČTYŘINAZRCADLE</t>
+  </si>
+  <si>
+    <t>POŘÁDNĚCOOSLAVUJETE</t>
+  </si>
+  <si>
+    <t>MANŽEHEILKASEVRÁTILAZLÁZNÍ</t>
+  </si>
+  <si>
+    <t>BYCHTUNESTÁL!</t>
+  </si>
+  <si>
+    <t>TEĎKONEČNĚODPOČÍVÁŠVPOKOJI</t>
+  </si>
+  <si>
+    <t>AONASITOHOHNEDSVŠIMDLA</t>
+  </si>
+  <si>
+    <t>ŽEJIPOSLOUCHÁM</t>
+  </si>
+  <si>
+    <t>TAKYPODČÁROU</t>
+  </si>
+  <si>
+    <t>1. osmi 016</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>2. osmi 073</t>
+  </si>
+  <si>
+    <t>3. osmi 001</t>
+  </si>
+  <si>
+    <t>4. osmi 057</t>
+  </si>
+  <si>
+    <t>5. osmi 098</t>
+  </si>
+  <si>
+    <t>6. osmi 043</t>
+  </si>
+  <si>
+    <t>7. osmi 086</t>
+  </si>
+  <si>
+    <t>8. osmi 059</t>
+  </si>
+  <si>
+    <t>9. osmi 099</t>
+  </si>
+  <si>
+    <t>10. osmi 003</t>
+  </si>
+  <si>
+    <t>11. osmi 074</t>
+  </si>
+  <si>
+    <t>12. osmi 045</t>
+  </si>
+  <si>
+    <t>13. osmi 061</t>
+  </si>
+  <si>
+    <t>14. osmi 087</t>
+  </si>
+  <si>
+    <t>15. osmi 018</t>
+  </si>
+  <si>
+    <t>16. osmi 101</t>
+  </si>
+  <si>
+    <t>17. osmi 005</t>
+  </si>
+  <si>
+    <t>18. osmi 075</t>
+  </si>
+  <si>
+    <t>19. osmi 089</t>
+  </si>
+  <si>
+    <t>20. osmi 019</t>
+  </si>
+  <si>
+    <t>21. osmi 046</t>
+  </si>
+  <si>
+    <t>22. osmi 102</t>
+  </si>
+  <si>
+    <t>23. osmi 006</t>
+  </si>
+  <si>
+    <t>24. osmi 076</t>
+  </si>
+  <si>
+    <t>25. osmi 090</t>
+  </si>
+  <si>
+    <t>26. osmi 007</t>
+  </si>
+  <si>
+    <t>27. osmi 021</t>
+  </si>
+  <si>
+    <t>28. osmi 103</t>
+  </si>
+  <si>
+    <t>29. osmi 047</t>
+  </si>
+  <si>
+    <t>30. osmi 077</t>
+  </si>
+  <si>
+    <t>31. osmi 062</t>
+  </si>
+  <si>
+    <t>32. osmi 091</t>
+  </si>
+  <si>
+    <t>33. osmi 105</t>
+  </si>
+  <si>
+    <t>34. osmi 022</t>
+  </si>
+  <si>
+    <t>35. osmi 048</t>
+  </si>
+  <si>
+    <t>36. osmi 078</t>
+  </si>
+  <si>
+    <t>37. osmi 008</t>
+  </si>
+  <si>
+    <t>38. osmi 064</t>
+  </si>
+  <si>
+    <t>39. osmi 110</t>
+  </si>
+  <si>
+    <t>40. osmi 092</t>
+  </si>
+  <si>
+    <t>41. osmi 023</t>
+  </si>
+  <si>
+    <t>42. osmi 009</t>
+  </si>
+  <si>
+    <t>43. osmi 049</t>
+  </si>
+  <si>
+    <t>44. osmi 065</t>
+  </si>
+  <si>
+    <t>45. osmi 114</t>
+  </si>
+  <si>
+    <t>46. osmi 080</t>
+  </si>
+  <si>
+    <t>47. osmi 025</t>
+  </si>
+  <si>
+    <t>48. osmi 093</t>
+  </si>
+  <si>
+    <t>49. osmi 030</t>
+  </si>
+  <si>
+    <t>50. osmi 011</t>
+  </si>
+  <si>
+    <t>51. osmi 117</t>
+  </si>
+  <si>
+    <t>52. osmi 081</t>
+  </si>
+  <si>
+    <t>53. osmi 115</t>
+  </si>
+  <si>
+    <t>54. osmi 050</t>
+  </si>
+  <si>
+    <t>55. osmi 095</t>
+  </si>
+  <si>
+    <t>56. osmi 026</t>
+  </si>
+  <si>
+    <t>57. osmi 013</t>
+  </si>
+  <si>
+    <t>58. osmi 031</t>
+  </si>
+  <si>
+    <t>59. osmi 066</t>
+  </si>
+  <si>
+    <t>60. osmi 119</t>
+  </si>
+  <si>
+    <t>61. osmi 116</t>
+  </si>
+  <si>
+    <t>62. osmi 027</t>
+  </si>
+  <si>
+    <t>63. osmi 051</t>
+  </si>
+  <si>
+    <t>64. osmi 014</t>
+  </si>
+  <si>
+    <t>65. osmi 096</t>
+  </si>
+  <si>
+    <t>66. osmi 067</t>
+  </si>
+  <si>
+    <t>67. osmi 033</t>
+  </si>
+  <si>
+    <t>68. osmi 032</t>
+  </si>
+  <si>
+    <t>69. osmi 082</t>
+  </si>
+  <si>
+    <t>70. osmi 120</t>
+  </si>
+  <si>
+    <t>71. osmi 029</t>
+  </si>
+  <si>
+    <t>72. osmi 053</t>
+  </si>
+  <si>
+    <t>73. osmi 097</t>
+  </si>
+  <si>
+    <t>74. osmi 070</t>
+  </si>
+  <si>
+    <t>75. osmi 034</t>
+  </si>
+  <si>
+    <t>76. osmi 084</t>
+  </si>
+  <si>
+    <t>77. osmi 055</t>
+  </si>
+  <si>
+    <t>78. osmi 071</t>
+  </si>
+  <si>
+    <t>79. osmi 035</t>
+  </si>
+  <si>
+    <t>80. osmi 036</t>
+  </si>
+  <si>
+    <t>81. osmi 038</t>
+  </si>
+  <si>
+    <t>82. osmi 039</t>
+  </si>
+  <si>
+    <t>83. osmi 042</t>
+  </si>
+  <si>
+    <t>[μs]</t>
+  </si>
+  <si>
+    <t>v2 [μs]</t>
+  </si>
+  <si>
+    <t>sum 83x:</t>
+  </si>
+  <si>
+    <t>all times added</t>
+  </si>
+  <si>
+    <t>Duration All (parallel)</t>
+  </si>
+  <si>
+    <t>JAKSETORAJČEJMENUJE?</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>HAN</t>
   </si>
 </sst>
 </file>
@@ -494,7 +983,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,7 +1028,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -562,83 +1050,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -918,14 +1329,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
@@ -944,824 +1356,963 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>218</v>
+      </c>
+      <c r="C3">
+        <v>42790</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>218</v>
+      </c>
+      <c r="C4">
+        <v>57823</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>218</v>
+      </c>
+      <c r="C5">
+        <v>60503</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>218</v>
+      </c>
+      <c r="C6">
+        <v>61059</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>48562</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>62314</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>56504</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>218</v>
+      </c>
+      <c r="C10">
+        <v>2417</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>218</v>
+      </c>
+      <c r="C11">
+        <v>2035</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>218</v>
+      </c>
+      <c r="C12">
+        <v>3036</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="C13">
+        <v>3874</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>218</v>
+      </c>
+      <c r="C14">
+        <v>3039</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>218</v>
+      </c>
+      <c r="C15">
+        <v>2366</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="C16">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
+        <v>218</v>
+      </c>
+      <c r="C17">
+        <v>23671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="C18">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
+        <v>218</v>
+      </c>
+      <c r="C19">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
+        <v>218</v>
+      </c>
+      <c r="C20">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="C21">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
+        <v>218</v>
+      </c>
+      <c r="C22">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
+        <v>218</v>
+      </c>
+      <c r="C23">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
+        <v>218</v>
+      </c>
+      <c r="C24">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="C25">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
+        <v>218</v>
+      </c>
+      <c r="C26">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
+        <v>218</v>
+      </c>
+      <c r="C27">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
+        <v>218</v>
+      </c>
+      <c r="C28">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
+        <v>218</v>
+      </c>
+      <c r="C29">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
+        <v>218</v>
+      </c>
+      <c r="C31">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>247</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
+        <v>218</v>
+      </c>
+      <c r="C32">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
+        <v>218</v>
+      </c>
+      <c r="C33">
+        <v>12297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
+        <v>218</v>
+      </c>
+      <c r="C34">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
+        <v>218</v>
+      </c>
+      <c r="C35">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
+        <v>218</v>
+      </c>
+      <c r="C36">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>252</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
+        <v>218</v>
+      </c>
+      <c r="C37">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
+        <v>218</v>
+      </c>
+      <c r="C38">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
+        <v>218</v>
+      </c>
+      <c r="C39">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
+        <v>218</v>
+      </c>
+      <c r="C40">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>256</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
+        <v>218</v>
+      </c>
+      <c r="C41">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>257</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
+        <v>218</v>
+      </c>
+      <c r="C42">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>258</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
+        <v>218</v>
+      </c>
+      <c r="C43">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
+        <v>218</v>
+      </c>
+      <c r="C44">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>260</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
+        <v>218</v>
+      </c>
+      <c r="C45">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>261</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
+        <v>218</v>
+      </c>
+      <c r="C46">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>262</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
+        <v>218</v>
+      </c>
+      <c r="C47">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
+        <v>218</v>
+      </c>
+      <c r="C48">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="C49">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
+        <v>218</v>
+      </c>
+      <c r="C50">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>266</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
+        <v>218</v>
+      </c>
+      <c r="C51">
+        <v>102711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
+        <v>218</v>
+      </c>
+      <c r="C52">
+        <v>13562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>268</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
+        <v>218</v>
+      </c>
+      <c r="C53">
+        <v>84507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>269</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
+        <v>218</v>
+      </c>
+      <c r="C54">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>270</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
+        <v>218</v>
+      </c>
+      <c r="C55">
+        <v>13886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>271</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>55</v>
+        <v>218</v>
+      </c>
+      <c r="C56">
+        <v>15475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>56</v>
+        <v>218</v>
+      </c>
+      <c r="C57">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>273</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>57</v>
+        <v>218</v>
+      </c>
+      <c r="C58">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>274</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>58</v>
+        <v>218</v>
+      </c>
+      <c r="C59">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>59</v>
+        <v>218</v>
+      </c>
+      <c r="C60">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>276</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>60</v>
+        <v>218</v>
+      </c>
+      <c r="C61">
+        <v>15578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>277</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="C62">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>278</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>62</v>
+        <v>218</v>
+      </c>
+      <c r="C63">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>279</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>63</v>
+        <v>218</v>
+      </c>
+      <c r="C64">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>64</v>
+        <v>218</v>
+      </c>
+      <c r="C65">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>281</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>65</v>
+        <v>218</v>
+      </c>
+      <c r="C66">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>66</v>
+        <v>218</v>
+      </c>
+      <c r="C67">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>67</v>
+        <v>218</v>
+      </c>
+      <c r="C68">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>284</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>68</v>
+        <v>218</v>
+      </c>
+      <c r="C69">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>69</v>
+        <v>218</v>
+      </c>
+      <c r="C70">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
+        <v>218</v>
+      </c>
+      <c r="C71">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>287</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
+        <v>218</v>
+      </c>
+      <c r="C72">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
+        <v>218</v>
+      </c>
+      <c r="C73">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>289</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
+        <v>218</v>
+      </c>
+      <c r="C74">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>290</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
+        <v>218</v>
+      </c>
+      <c r="C75">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>291</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
+        <v>218</v>
+      </c>
+      <c r="C76">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
+        <v>218</v>
+      </c>
+      <c r="C77">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>77</v>
+        <v>218</v>
+      </c>
+      <c r="C78">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>294</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>78</v>
+        <v>218</v>
+      </c>
+      <c r="C79">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>79</v>
+        <v>218</v>
+      </c>
+      <c r="C80">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>296</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>80</v>
+        <v>218</v>
+      </c>
+      <c r="C81">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>81</v>
+        <v>218</v>
+      </c>
+      <c r="C82">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>298</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>82</v>
+        <v>218</v>
+      </c>
+      <c r="C83">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>299</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>83</v>
+        <v>218</v>
+      </c>
+      <c r="C84">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>300</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>84</v>
+        <v>218</v>
+      </c>
+      <c r="C85">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>98</v>
+        <v>303</v>
+      </c>
+      <c r="C86">
+        <f>SUM(C3:C85)</f>
+        <v>890223</v>
+      </c>
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88">
+        <v>200135</v>
+      </c>
+      <c r="D88" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1774,9 +2325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74E096-B76D-4254-90EC-1ACF60B0DC5D}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,19 +2347,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1816,10 +2367,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
       </c>
       <c r="E3">
         <f>LEN(C3)</f>
@@ -1829,7 +2383,7 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <f>IF(E3="","n/a",IF(E3-1=F3,1,0))</f>
+        <f t="shared" ref="G3:G66" si="0">IF(E3="","n/a",IF(E3-(LEN(C3) - LEN(SUBSTITUTE(C3, "CH",""))) / LEN("CH")=F3,1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1838,10 +2392,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" t="str">
-        <f>IF(E4="","n/a",IF(E4=F4,1,0))</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1850,20 +2404,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E4:E16" si="0">LEN(C5)</f>
+        <f t="shared" ref="E5:E68" si="1">LEN(C5)</f>
         <v>19</v>
       </c>
       <c r="F5">
         <v>19</v>
       </c>
       <c r="G5">
-        <f>IF(E5="","n/a",IF(E5=F5,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1872,10 +2429,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" t="str">
-        <f>IF(E6="","n/a",IF(E6=F6,1,0))</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1884,20 +2441,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F7">
         <v>21</v>
       </c>
       <c r="G7">
-        <f>IF(E7="","n/a",IF(E7=F7,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1909,17 +2469,20 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>308</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <f>IF(E8="","n/a",IF(E8=F8,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1931,17 +2494,17 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F9">
         <v>11</v>
       </c>
       <c r="G9">
-        <f>IF(E9="","n/a",IF(E9-1=F9,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1953,17 +2516,17 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F10">
         <v>17</v>
       </c>
       <c r="G10">
-        <f>IF(E10="","n/a",IF(E10=F10,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1975,17 +2538,17 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <f>IF(E11="","n/a",IF(E11=F11,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1997,7 +2560,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(E12="","n/a",IF(E12=F12,1,0))</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2006,20 +2569,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>307</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F13">
         <v>19</v>
       </c>
       <c r="G13">
-        <f>IF(E13="","n/a",IF(E13=F13,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2028,10 +2594,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(E14="","n/a",IF(E14=F14,1,0))</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2040,20 +2606,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>308</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F15">
         <v>19</v>
       </c>
       <c r="G15">
-        <f>IF(E15="","n/a",IF(E15-2=F15,1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2062,20 +2631,20 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
       <c r="G16">
-        <f>IF(E16="","n/a",IF(E16=F16,1,0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2084,10 +2653,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(E17="","n/a",IF(E17=F17,1,0))</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2096,11 +2665,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" ref="G18:G81" si="1">IF(E18="","n/a",IF(E18=F18,1,0))</f>
-        <v>n/a</v>
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,10 +2690,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2120,11 +2702,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="str">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2132,11 +2727,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="str">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2144,10 +2749,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2156,11 +2761,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2168,11 +2786,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="str">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2180,11 +2811,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="str">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2192,10 +2833,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2204,12 +2845,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="G27" t="str">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2217,11 +2870,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="str">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2229,11 +2895,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="str">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,10 +2917,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2253,11 +2929,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="str">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,11 +2954,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="str">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2277,11 +2979,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="str">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2289,11 +3001,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="str">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2301,11 +3023,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="str">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2313,11 +3048,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="str">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2325,11 +3070,21 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="str">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2337,11 +3092,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="str">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2349,10 +3117,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2361,11 +3129,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="str">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2373,11 +3151,21 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="str">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2385,10 +3173,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2397,10 +3185,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2409,11 +3197,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" t="str">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2421,11 +3222,21 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="str">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2433,10 +3244,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2445,11 +3256,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" t="str">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,11 +3281,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" t="str">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,11 +3303,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" t="str">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2481,11 +3325,21 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" t="str">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2493,11 +3347,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="str">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2505,11 +3369,21 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="str">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2517,11 +3391,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="str">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2529,10 +3413,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2541,11 +3425,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" t="str">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2553,10 +3450,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2565,11 +3462,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" t="str">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2577,10 +3484,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2589,11 +3496,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" t="str">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,10 +3518,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2613,11 +3530,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="str">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2625,10 +3552,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2637,11 +3564,21 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="G63" t="str">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2649,11 +3586,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" t="str">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2661,10 +3608,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2673,11 +3620,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" t="str">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>24</v>
+      </c>
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2685,11 +3645,21 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="str">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>21</v>
+      </c>
+      <c r="F67">
+        <v>21</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G124" si="2">IF(E67="","n/a",IF(E67-(LEN(C67) - LEN(SUBSTITUTE(C67, "CH",""))) / LEN("CH")=F67,1,0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2697,11 +3667,21 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" t="str">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2709,11 +3689,21 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E124" si="3">LEN(C69)</f>
+        <v>19</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2721,10 +3711,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2733,10 +3723,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2745,11 +3735,21 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F72">
+        <v>22</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2757,11 +3757,21 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2769,10 +3779,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2781,11 +3791,21 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>16</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,11 +3813,21 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2805,11 +3835,21 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F77">
+        <v>19</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2817,11 +3857,21 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>18</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2829,11 +3879,21 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2841,11 +3901,21 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F80">
+        <v>21</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2853,10 +3923,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2865,11 +3935,21 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" ref="G82:G124" si="2">IF(E82="","n/a",IF(E82=F82,1,0))</f>
-        <v>n/a</v>
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F82">
+        <v>27</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2877,11 +3957,21 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2889,11 +3979,21 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2901,7 +4001,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
@@ -2913,11 +4013,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F86">
+        <v>27</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2925,7 +4035,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
@@ -2937,11 +4047,21 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2949,11 +4069,21 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2961,7 +4091,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
@@ -2973,11 +4103,21 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2985,11 +4125,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F92">
+        <v>23</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2997,11 +4147,21 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3009,11 +4169,21 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>22</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3021,11 +4191,21 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3033,7 +4213,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
@@ -3045,11 +4225,21 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>18</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3057,11 +4247,21 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F98">
+        <v>33</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3069,11 +4269,21 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F99">
+        <v>19</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3081,11 +4291,21 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="F100">
+        <v>23</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3093,11 +4313,21 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3105,7 +4335,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
@@ -3117,11 +4347,21 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="F103">
+        <v>26</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3129,11 +4369,21 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F104">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3141,11 +4391,21 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3153,7 +4413,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
@@ -3165,11 +4425,21 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,7 +4447,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
@@ -3189,7 +4459,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
@@ -3201,7 +4471,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
@@ -3213,7 +4483,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
@@ -3225,11 +4495,21 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F112">
+        <v>21</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3237,7 +4517,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
@@ -3249,7 +4529,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
@@ -3261,7 +4541,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
@@ -3273,11 +4553,21 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3285,11 +4575,21 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>127</v>
+      </c>
+      <c r="C117" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F117">
+        <v>19</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3297,11 +4597,21 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>17</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3309,11 +4619,21 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F119">
+        <v>22</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3321,7 +4641,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
@@ -3333,11 +4653,21 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3345,11 +4675,21 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="2"/>
-        <v>n/a</v>
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>18</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3357,7 +4697,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
@@ -3369,7 +4709,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>

--- a/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
+++ b/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git_atlantis\SourceCodes\Lusteni_GitHub\_data\Osmismerky\2025-01_KO\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DBA0CA-B87E-4BCD-840B-D2EB5ECB4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA681BEA-8EBF-45FC-8C07-51907EE5B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37050" yWindow="975" windowWidth="17280" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37050" yWindow="975" windowWidth="17280" windowHeight="13230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -2325,9 +2325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74E096-B76D-4254-90EC-1ACF60B0DC5D}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,7 +3695,7 @@
         <v>188</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E124" si="3">LEN(C69)</f>
+        <f t="shared" ref="E69:E122" si="3">LEN(C69)</f>
         <v>19</v>
       </c>
       <c r="F69">

--- a/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
+++ b/_data/Osmismerky/2025-01_KO/Results/2025-01_KO_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git_atlantis\SourceCodes\Lusteni_GitHub\_data\Osmismerky\2025-01_KO\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA681BEA-8EBF-45FC-8C07-51907EE5B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AEC876-F59B-4731-85B3-C731B8E30173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37050" yWindow="975" windowWidth="17280" windowHeight="13230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="0" windowWidth="17280" windowHeight="12384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="313">
   <si>
     <t>time to solve</t>
   </si>
@@ -953,6 +953,18 @@
   </si>
   <si>
     <t>HAN</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>HNovot</t>
+  </si>
+  <si>
+    <t>HAN, Hnovot</t>
+  </si>
+  <si>
+    <t>PM, Hnovot</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2338,8 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,6 +2508,9 @@
       <c r="C9" t="s">
         <v>141</v>
       </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2612,7 +2627,7 @@
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2708,7 +2723,7 @@
         <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -2816,6 +2831,9 @@
       <c r="C25" t="s">
         <v>157</v>
       </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
       <c r="E25">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2876,7 +2894,7 @@
         <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2960,7 +2978,7 @@
         <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -3134,6 +3152,9 @@
       <c r="C40" t="s">
         <v>168</v>
       </c>
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
       <c r="E40">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3286,6 +3307,9 @@
       <c r="C48" t="s">
         <v>173</v>
       </c>
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
       <c r="E48">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3330,6 +3354,9 @@
       <c r="C50" t="s">
         <v>175</v>
       </c>
+      <c r="D50" t="s">
+        <v>309</v>
+      </c>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3374,6 +3401,9 @@
       <c r="C52" t="s">
         <v>177</v>
       </c>
+      <c r="D52" t="s">
+        <v>310</v>
+      </c>
       <c r="E52">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3396,6 +3426,9 @@
       <c r="C53" t="s">
         <v>178</v>
       </c>
+      <c r="D53" t="s">
+        <v>309</v>
+      </c>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3467,6 +3500,9 @@
       <c r="C57" t="s">
         <v>180</v>
       </c>
+      <c r="D57" t="s">
+        <v>309</v>
+      </c>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3650,6 +3686,9 @@
       <c r="C67" t="s">
         <v>186</v>
       </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
       <c r="E67">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3740,6 +3779,9 @@
       <c r="C72" t="s">
         <v>189</v>
       </c>
+      <c r="D72" t="s">
+        <v>309</v>
+      </c>
       <c r="E72">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3818,6 +3860,9 @@
       <c r="C76" t="s">
         <v>192</v>
       </c>
+      <c r="D76" t="s">
+        <v>309</v>
+      </c>
       <c r="E76">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3906,6 +3951,9 @@
       <c r="C80" t="s">
         <v>196</v>
       </c>
+      <c r="D80" t="s">
+        <v>309</v>
+      </c>
       <c r="E80">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3940,6 +3988,9 @@
       <c r="C82" t="s">
         <v>197</v>
       </c>
+      <c r="D82" t="s">
+        <v>309</v>
+      </c>
       <c r="E82">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4017,6 +4068,9 @@
       </c>
       <c r="C86" t="s">
         <v>200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>309</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
